--- a/data/outputs/management_altmetric/32.xlsx
+++ b/data/outputs/management_altmetric/32.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE10"/>
+  <dimension ref="A1:CF10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1027,6 +1032,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1266,6 +1274,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1513,6 +1524,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1748,6 +1762,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1993,6 +2010,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>18.28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2238,6 +2258,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2479,6 +2502,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2724,6 +2750,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>8.35</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2965,6 +2994,9 @@
       <c r="CE10" t="n">
         <v>1</v>
       </c>
+      <c r="CF10" t="n">
+        <v>74.78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
